--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A19A5FE-7AAB-D74B-A8CD-2CE1FE37AD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3D3910-F0F0-7645-B1BD-C603EE20BBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,150 +36,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>week</t>
   </si>
   <si>
-    <t>dow</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
-    <t>what</t>
-  </si>
-  <si>
     <t>topic</t>
   </si>
   <si>
     <t>prepare</t>
   </si>
   <si>
-    <t>slides</t>
-  </si>
-  <si>
-    <t>ae</t>
-  </si>
-  <si>
-    <t>ae_sa</t>
-  </si>
-  <si>
-    <t>hw</t>
-  </si>
-  <si>
-    <t>hw_sa</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>lab_sa</t>
-  </si>
-  <si>
-    <t>exam</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Due: Final project</t>
-  </si>
-  <si>
-    <t>Class 1</t>
-  </si>
-  <si>
-    <t>Class 2</t>
-  </si>
-  <si>
-    <t>Class 3</t>
-  </si>
-  <si>
-    <t>Class 4</t>
-  </si>
-  <si>
-    <t>Class 5</t>
-  </si>
-  <si>
-    <t>Class 6</t>
-  </si>
-  <si>
-    <t>Class 7</t>
-  </si>
-  <si>
-    <t>Class 8</t>
-  </si>
-  <si>
-    <t>Class 9</t>
-  </si>
-  <si>
-    <t>Class 10</t>
-  </si>
-  <si>
-    <t>Class 11</t>
-  </si>
-  <si>
-    <t>Class 12</t>
-  </si>
-  <si>
-    <t>Class 13</t>
-  </si>
-  <si>
-    <t>Class 14</t>
-  </si>
-  <si>
-    <t>Class 15</t>
-  </si>
-  <si>
-    <t>Class 16</t>
-  </si>
-  <si>
-    <t>Class 17</t>
-  </si>
-  <si>
-    <t>Class 18</t>
-  </si>
-  <si>
-    <t>Class 19</t>
-  </si>
-  <si>
-    <t>Class 20</t>
-  </si>
-  <si>
-    <t>Class 21</t>
-  </si>
-  <si>
-    <t>Class 22</t>
-  </si>
-  <si>
-    <t>Class 23</t>
-  </si>
-  <si>
-    <t>Due: Project proposal</t>
-  </si>
-  <si>
-    <t>Bring: Final project draft</t>
-  </si>
-  <si>
-    <t>Bring: project proposal</t>
-  </si>
-  <si>
     <t>Final project presentations</t>
+  </si>
+  <si>
+    <t>Due: Final paper</t>
+  </si>
+  <si>
+    <t>Bring: Final project question drafts for peer review</t>
+  </si>
+  <si>
+    <t>Due: Final project proposal</t>
+  </si>
+  <si>
+    <t>Due: Final project descriptive statistics</t>
+  </si>
+  <si>
+    <t>Bring: Final project descriptive statistics</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>Welcome! Info and setup</t>
+  </si>
+  <si>
+    <t>IMS ch 1</t>
+  </si>
+  <si>
+    <t>An introduction to data</t>
+  </si>
+  <si>
+    <t>IMS ch 2</t>
+  </si>
+  <si>
+    <t>No class; final paper due</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Studies and samples</t>
+  </si>
+  <si>
+    <t>Research questions</t>
+  </si>
+  <si>
+    <t>Bring: Final project results</t>
+  </si>
+  <si>
+    <t>Due: Final project results</t>
+  </si>
+  <si>
+    <t>Bring: Final paper draft</t>
+  </si>
+  <si>
+    <t>Due: HW1: Getting oriented to R</t>
+  </si>
+  <si>
+    <t>Due: HW2: Analyzing data</t>
+  </si>
+  <si>
+    <t>IMS ch 4</t>
+  </si>
+  <si>
+    <t>IMS ch 5</t>
+  </si>
+  <si>
+    <t>Numerical data pt 1</t>
+  </si>
+  <si>
+    <t>Categorical data pt 2</t>
+  </si>
+  <si>
+    <t>Categorical data pt 1</t>
+  </si>
+  <si>
+    <t>Numerical data pt 2</t>
+  </si>
+  <si>
+    <t>IMS ch 7</t>
+  </si>
+  <si>
+    <t>IMS ch 6</t>
+  </si>
+  <si>
+    <t>Making nice plots</t>
+  </si>
+  <si>
+    <t>Hypothesis testing pt 1</t>
+  </si>
+  <si>
+    <t>Hypothesis testing pt 2</t>
+  </si>
+  <si>
+    <t>IMS ch 11</t>
+  </si>
+  <si>
+    <t>IMS ch 8</t>
+  </si>
+  <si>
+    <t>Multiple regression pt 1</t>
+  </si>
+  <si>
+    <t>Multiple regression pt 2</t>
+  </si>
+  <si>
+    <t>Best fit lines pt 1</t>
+  </si>
+  <si>
+    <t>Best fit lines pt 2</t>
+  </si>
+  <si>
+    <t>Hypothesis testing pt 3</t>
+  </si>
+  <si>
+    <t>Causality</t>
+  </si>
+  <si>
+    <t>Interpreting results</t>
+  </si>
+  <si>
+    <t>Juneteenth--no class</t>
   </si>
 </sst>
 </file>
@@ -546,15 +537,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,337 +562,277 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2">
         <v>45063</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
         <v>45064</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2">
+        <v>45068</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2">
-        <v>45068</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>45069</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>45070</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2">
-        <v>45069</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>45071</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45070</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45071</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="2">
         <v>45075</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
         <v>45076</v>
       </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
         <v>45077</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
         <v>45078</v>
       </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="2">
         <v>45082</v>
       </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
         <v>45083</v>
       </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
         <v>45084</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
         <v>45085</v>
       </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="2">
         <v>45089</v>
       </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
         <v>45090</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
         <v>45091</v>
       </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>45092</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2">
-        <v>45092</v>
-      </c>
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
+      <c r="B20" s="2">
         <v>45096</v>
       </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
         <v>45097</v>
       </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
         <v>45098</v>
       </c>
-      <c r="D22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
         <v>45099</v>
       </c>
-      <c r="D23" t="s">
-        <v>42</v>
-      </c>
-      <c r="P23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B24" s="2">
         <v>45103</v>
       </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
         <v>45106</v>
       </c>
-      <c r="P25" t="s">
-        <v>20</v>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3D3910-F0F0-7645-B1BD-C603EE20BBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7D8CB-EE52-A149-BE1F-98BCD52755FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>week</t>
   </si>
@@ -170,7 +170,10 @@
     <t>Interpreting results</t>
   </si>
   <si>
-    <t>Juneteenth--no class</t>
+    <t>No class. Happy Memorial Day!</t>
+  </si>
+  <si>
+    <t>No class. Happy Juneteenth!</t>
   </si>
 </sst>
 </file>
@@ -540,7 +543,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -651,10 +654,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -662,10 +662,10 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -673,7 +673,10 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -681,10 +684,7 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -698,10 +698,10 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -712,7 +712,10 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -720,7 +723,7 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -728,10 +731,7 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -742,7 +742,10 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
@@ -753,10 +756,7 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,7 +764,10 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -772,7 +775,7 @@
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -786,7 +789,7 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -794,7 +797,7 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
         <v>20</v>
@@ -803,6 +806,9 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>45098</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7D8CB-EE52-A149-BE1F-98BCD52755FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8868AD-F2F1-5745-993D-17B53A2D3763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>week</t>
   </si>
@@ -47,30 +47,9 @@
     <t>topic</t>
   </si>
   <si>
-    <t>prepare</t>
-  </si>
-  <si>
     <t>Final project presentations</t>
   </si>
   <si>
-    <t>Due: Final paper</t>
-  </si>
-  <si>
-    <t>Bring: Final project question drafts for peer review</t>
-  </si>
-  <si>
-    <t>Due: Final project proposal</t>
-  </si>
-  <si>
-    <t>Due: Final project descriptive statistics</t>
-  </si>
-  <si>
-    <t>Bring: Final project descriptive statistics</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
     <t>Welcome! Info and setup</t>
   </si>
   <si>
@@ -95,21 +74,6 @@
     <t>Research questions</t>
   </si>
   <si>
-    <t>Bring: Final project results</t>
-  </si>
-  <si>
-    <t>Due: Final project results</t>
-  </si>
-  <si>
-    <t>Bring: Final paper draft</t>
-  </si>
-  <si>
-    <t>Due: HW1: Getting oriented to R</t>
-  </si>
-  <si>
-    <t>Due: HW2: Analyzing data</t>
-  </si>
-  <si>
     <t>IMS ch 4</t>
   </si>
   <si>
@@ -174,6 +138,51 @@
   </si>
   <si>
     <t>No class. Happy Juneteenth!</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Bring</t>
+  </si>
+  <si>
+    <t>Final project question drafts for peer review</t>
+  </si>
+  <si>
+    <t>Final project descriptive statistics</t>
+  </si>
+  <si>
+    <t>Final project results</t>
+  </si>
+  <si>
+    <t>Final paper draft</t>
+  </si>
+  <si>
+    <t>HW2: Analyzing data</t>
+  </si>
+  <si>
+    <t>Final project proposal</t>
+  </si>
+  <si>
+    <t>HW1: Getting oriented to R</t>
+  </si>
+  <si>
+    <t>Final paper</t>
+  </si>
+  <si>
+    <t>Getting to know you survey</t>
+  </si>
+  <si>
+    <t>Assignment due</t>
+  </si>
+  <si>
+    <t>In-class exercise</t>
+  </si>
+  <si>
+    <t>GitHub account creation</t>
+  </si>
+  <si>
+    <t>Wrapup</t>
   </si>
 </sst>
 </file>
@@ -543,7 +552,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,13 +571,17 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -585,7 +598,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -593,10 +609,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -607,10 +626,7 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -618,7 +634,10 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -626,10 +645,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -637,13 +656,13 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -654,7 +673,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -662,10 +681,10 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -673,10 +692,10 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -684,10 +703,10 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -698,13 +717,13 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -712,10 +731,10 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -723,7 +742,7 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -731,7 +750,7 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -742,46 +761,46 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>45092</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -789,56 +808,62 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>45099</v>
       </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
       <c r="E23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
       <c r="B24" s="2">
         <v>45103</v>
       </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>45106</v>
+        <v>45105</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8868AD-F2F1-5745-993D-17B53A2D3763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB4C29-86E9-1345-A840-01D0ADC90735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -146,6 +137,9 @@
     <t>Bring</t>
   </si>
   <si>
+    <t>Due</t>
+  </si>
+  <si>
     <t>Final project question drafts for peer review</t>
   </si>
   <si>
@@ -173,16 +167,25 @@
     <t>Getting to know you survey</t>
   </si>
   <si>
-    <t>Assignment due</t>
-  </si>
-  <si>
-    <t>In-class exercise</t>
-  </si>
-  <si>
     <t>GitHub account creation</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>Wrapup</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Exercise</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,25 +565,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -598,10 +601,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -609,13 +612,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -626,7 +629,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -634,10 +640,13 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -645,10 +654,13 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -656,13 +668,16 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -673,7 +688,10 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -681,10 +699,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -692,10 +713,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -703,10 +727,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -717,13 +744,16 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -731,10 +761,13 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -742,7 +775,10 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -750,7 +786,10 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -761,46 +800,58 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -808,40 +859,52 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
@@ -849,21 +912,24 @@
         <v>45103</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>45105</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB4C29-86E9-1345-A840-01D0ADC90735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CFF45-2CE1-6744-9AE2-5026B3A6E6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Final project presentations</t>
   </si>
   <si>
-    <t>Welcome! Info and setup</t>
-  </si>
-  <si>
-    <t>IMS ch 1</t>
-  </si>
-  <si>
-    <t>An introduction to data</t>
-  </si>
-  <si>
-    <t>IMS ch 2</t>
-  </si>
-  <si>
     <t>No class; final paper due</t>
   </si>
   <si>
@@ -65,12 +53,6 @@
     <t>Research questions</t>
   </si>
   <si>
-    <t>IMS ch 4</t>
-  </si>
-  <si>
-    <t>IMS ch 5</t>
-  </si>
-  <si>
     <t>Numerical data pt 1</t>
   </si>
   <si>
@@ -83,12 +65,6 @@
     <t>Numerical data pt 2</t>
   </si>
   <si>
-    <t>IMS ch 7</t>
-  </si>
-  <si>
-    <t>IMS ch 6</t>
-  </si>
-  <si>
     <t>Making nice plots</t>
   </si>
   <si>
@@ -98,12 +74,6 @@
     <t>Hypothesis testing pt 2</t>
   </si>
   <si>
-    <t>IMS ch 11</t>
-  </si>
-  <si>
-    <t>IMS ch 8</t>
-  </si>
-  <si>
     <t>Multiple regression pt 1</t>
   </si>
   <si>
@@ -140,36 +110,15 @@
     <t>Due</t>
   </si>
   <si>
-    <t>Final project question drafts for peer review</t>
-  </si>
-  <si>
-    <t>Final project descriptive statistics</t>
-  </si>
-  <si>
-    <t>Final project results</t>
-  </si>
-  <si>
-    <t>Final paper draft</t>
-  </si>
-  <si>
     <t>HW2: Analyzing data</t>
   </si>
   <si>
-    <t>Final project proposal</t>
-  </si>
-  <si>
     <t>HW1: Getting oriented to R</t>
   </si>
   <si>
-    <t>Final paper</t>
-  </si>
-  <si>
     <t>Getting to know you survey</t>
   </si>
   <si>
-    <t>GitHub account creation</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -186,6 +135,66 @@
   </si>
   <si>
     <t>Exercise</t>
+  </si>
+  <si>
+    <t>[IMS ch 1](https://openintro-ims.netlify.app/data-hello.html)</t>
+  </si>
+  <si>
+    <t>[IMS ch 2](https://openintro-ims.netlify.app/data-design.html)</t>
+  </si>
+  <si>
+    <t>[IMS ch 4](https://openintro-ims.netlify.app/explore-categorical.html)</t>
+  </si>
+  <si>
+    <t>[IMS ch 5](https://openintro-ims.netlify.app/explore-numerical.html)</t>
+  </si>
+  <si>
+    <t>[IMS ch 6](https://openintro-ims.netlify.app/explore-applications.html)</t>
+  </si>
+  <si>
+    <t>[IMS ch 11](https://openintro-ims.netlify.app/foundations-randomization.html)</t>
+  </si>
+  <si>
+    <t>[IMS ch 7](https://openintro-ims.netlify.app/model-slr.html)</t>
+  </si>
+  <si>
+    <t>[IMS ch 8](https://openintro-ims.netlify.app/model-mlr.html)</t>
+  </si>
+  <si>
+    <t>Component 1 draft</t>
+  </si>
+  <si>
+    <t>Component 2 draft</t>
+  </si>
+  <si>
+    <t>Component 3 draft</t>
+  </si>
+  <si>
+    <t>Component 4 draft</t>
+  </si>
+  <si>
+    <t>Component 1: proposal</t>
+  </si>
+  <si>
+    <t>Component 2: Descriptive statistics</t>
+  </si>
+  <si>
+    <t>Component 3: Results</t>
+  </si>
+  <si>
+    <t>Component 5: Presentation</t>
+  </si>
+  <si>
+    <t>Component 4: Final paper</t>
+  </si>
+  <si>
+    <t>Computing setup</t>
+  </si>
+  <si>
+    <t>Computing setup; intro to data pt 2</t>
+  </si>
+  <si>
+    <t>Welcome! Course info; intro to data pt 1</t>
   </si>
 </sst>
 </file>
@@ -555,35 +564,36 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -601,10 +611,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -612,13 +622,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -629,10 +639,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -640,13 +650,13 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -654,13 +664,13 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -668,16 +678,16 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -688,10 +698,10 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -699,13 +709,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -713,13 +723,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -727,13 +737,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -744,16 +754,16 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -761,13 +771,13 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -775,10 +785,10 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -786,10 +796,10 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -800,16 +810,16 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -817,10 +827,10 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,13 +838,13 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -842,13 +852,13 @@
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -859,10 +869,10 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -870,13 +880,13 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -884,10 +894,10 @@
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -895,13 +905,13 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -915,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -926,10 +936,10 @@
         <v>45105</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CFF45-2CE1-6744-9AE2-5026B3A6E6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA468585-AD97-8E43-8EBD-B68C2C9ED06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>No class; final paper due</t>
   </si>
   <si>
-    <t>Variables</t>
-  </si>
-  <si>
     <t>Studies and samples</t>
   </si>
   <si>
@@ -188,13 +185,16 @@
     <t>Component 4: Final paper</t>
   </si>
   <si>
-    <t>Computing setup</t>
-  </si>
-  <si>
-    <t>Computing setup; intro to data pt 2</t>
-  </si>
-  <si>
     <t>Welcome! Course info; intro to data pt 1</t>
+  </si>
+  <si>
+    <t>Intro to data and variables</t>
+  </si>
+  <si>
+    <t>Intro to the computing workflow</t>
+  </si>
+  <si>
+    <t>Computing setup test</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,25 +575,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -611,10 +611,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -622,13 +622,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -639,10 +639,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -650,13 +650,13 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -664,13 +664,13 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -678,16 +678,16 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -698,10 +698,10 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -709,13 +709,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -723,13 +723,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -737,13 +737,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -754,16 +754,16 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -771,13 +771,13 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -785,10 +785,10 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -810,16 +810,16 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -827,10 +827,10 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -838,13 +838,13 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -852,13 +852,13 @@
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -869,10 +869,10 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -880,13 +880,13 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -894,10 +894,10 @@
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -905,13 +905,13 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -925,10 +925,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA468585-AD97-8E43-8EBD-B68C2C9ED06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60215BBD-317F-3944-9504-A9DEEB570411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -185,9 +185,6 @@
     <t>Component 4: Final paper</t>
   </si>
   <si>
-    <t>Welcome! Course info; intro to data pt 1</t>
-  </si>
-  <si>
     <t>Intro to data and variables</t>
   </si>
   <si>
@@ -195,6 +192,12 @@
   </si>
   <si>
     <t>Computing setup test</t>
+  </si>
+  <si>
+    <t>Variable types</t>
+  </si>
+  <si>
+    <t>[Welcome! Course info; intro to data pt 1](https://soc333-sum23.github.io/slides/01-welcome.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,7 +614,7 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -622,13 +625,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -639,10 +642,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
         <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60215BBD-317F-3944-9504-A9DEEB570411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955FF315-228E-4140-BDCA-1C06247B0E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -116,9 +116,6 @@
     <t>Getting to know you survey</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Wrapup</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Component 4: Final paper</t>
   </si>
   <si>
-    <t>Intro to data and variables</t>
-  </si>
-  <si>
     <t>Intro to the computing workflow</t>
   </si>
   <si>
@@ -198,6 +192,9 @@
   </si>
   <si>
     <t>[Welcome! Course info; intro to data pt 1](https://soc333-sum23.github.io/slides/01-welcome.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Intro to data and variables](https://soc333-sum23.github.io/slides/02-datavariables.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -567,7 +564,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,13 +575,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -596,7 +593,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -614,7 +611,7 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -625,13 +622,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -642,10 +639,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -658,9 +655,6 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -670,10 +664,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -684,13 +675,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -703,9 +691,6 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
@@ -715,10 +700,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -729,10 +711,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -743,10 +722,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -760,13 +736,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -777,10 +750,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -790,9 +760,6 @@
       <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
@@ -801,9 +768,6 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -816,27 +780,21 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>45090</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>45091</v>
       </c>
@@ -844,13 +802,10 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>45092</v>
       </c>
@@ -858,13 +813,10 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -874,11 +826,8 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>45097</v>
       </c>
@@ -886,38 +835,29 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>45098</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
@@ -928,13 +868,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>45105</v>
       </c>
@@ -942,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955FF315-228E-4140-BDCA-1C06247B0E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B554B71-5EA4-4441-8BA8-627CAC1E0FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="-50740" yWindow="500" windowWidth="28420" windowHeight="26600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,10 +191,10 @@
     <t>Variable types</t>
   </si>
   <si>
-    <t>[Welcome! Course info; intro to data pt 1](https://soc333-sum23.github.io/slides/01-welcome.html#/title-slide)</t>
-  </si>
-  <si>
-    <t>[Intro to data and variables](https://soc333-sum23.github.io/slides/02-datavariables.html#/title-slide)</t>
+    <t>[Welcome! Course info](https://soc333-sum23.github.io/slides/01-welcome.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Data and variables](https://soc333-sum23.github.io/slides/02-datavariables.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B554B71-5EA4-4441-8BA8-627CAC1E0FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB846A2E-AAA2-A048-9907-CE5534F24865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50740" yWindow="500" windowWidth="28420" windowHeight="26600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="-51020" yWindow="500" windowWidth="28420" windowHeight="26600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -110,9 +110,6 @@
     <t>HW2: Analyzing data</t>
   </si>
   <si>
-    <t>HW1: Getting oriented to R</t>
-  </si>
-  <si>
     <t>Getting to know you survey</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Component 4 draft</t>
   </si>
   <si>
-    <t>Component 1: proposal</t>
-  </si>
-  <si>
     <t>Component 2: Descriptive statistics</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>Component 4: Final paper</t>
   </si>
   <si>
-    <t>Intro to the computing workflow</t>
-  </si>
-  <si>
     <t>Computing setup test</t>
   </si>
   <si>
@@ -195,6 +186,12 @@
   </si>
   <si>
     <t>[Data and variables](https://soc333-sum23.github.io/slides/02-datavariables.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Component 1: proposal AND HW1: Getting oriented to R</t>
+  </si>
+  <si>
+    <t>[Intro to the computing workflow](https://soc333-sum23.github.io/slides/03-computing.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -563,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,13 +572,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -593,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -611,10 +608,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -622,13 +619,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -639,10 +636,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -652,9 +649,6 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
@@ -664,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -675,10 +669,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -700,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -711,7 +705,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -722,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -736,10 +730,10 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -750,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -780,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
@@ -802,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -813,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -835,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -851,10 +845,10 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -868,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -879,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB846A2E-AAA2-A048-9907-CE5534F24865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6848DB2-FF9F-B44E-B5D1-3003F11AC386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51020" yWindow="500" windowWidth="28420" windowHeight="26600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>[Intro to the computing workflow](https://soc333-sum23.github.io/slides/03-computing.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Project and research questions](https://soc333-sum23.github.io/slides/04-researchquestions.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,6 +650,9 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
         <v>3</v>
       </c>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6848DB2-FF9F-B44E-B5D1-3003F11AC386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86FC1E-5714-FD44-ADE0-9296AD44E01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t>Component 1 draft</t>
   </si>
   <si>
-    <t>Component 2 draft</t>
-  </si>
-  <si>
     <t>Component 3 draft</t>
   </si>
   <si>
@@ -188,13 +185,16 @@
     <t>[Data and variables](https://soc333-sum23.github.io/slides/02-datavariables.html#/title-slide)</t>
   </si>
   <si>
-    <t>Component 1: proposal AND HW1: Getting oriented to R</t>
-  </si>
-  <si>
     <t>[Intro to the computing workflow](https://soc333-sum23.github.io/slides/03-computing.html#/title-slide)</t>
   </si>
   <si>
     <t>[Project and research questions](https://soc333-sum23.github.io/slides/04-researchquestions.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>HW 1: Getting oriented to R</t>
+  </si>
+  <si>
+    <t>Component 1: proposal</t>
   </si>
 </sst>
 </file>
@@ -563,13 +563,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="44.1640625" customWidth="1"/>
+    <col min="3" max="3" width="97.1640625" customWidth="1"/>
+    <col min="4" max="4" width="66.5" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,7 +612,7 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -622,13 +623,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -639,10 +640,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -650,7 +651,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -700,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -721,8 +722,8 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
+      <c r="F11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -739,7 +740,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -813,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -835,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,7 +855,7 @@
         <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -868,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -879,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86FC1E-5714-FD44-ADE0-9296AD44E01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90A32C-559B-C44F-BA8D-96EB0509B3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -167,9 +167,6 @@
     <t>Component 3: Results</t>
   </si>
   <si>
-    <t>Component 5: Presentation</t>
-  </si>
-  <si>
     <t>Component 4: Final paper</t>
   </si>
   <si>
@@ -195,6 +192,12 @@
   </si>
   <si>
     <t>Component 1: proposal</t>
+  </si>
+  <si>
+    <t>Component 5: Presentation (start)</t>
+  </si>
+  <si>
+    <t>Component 5: Presentation (finish)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +567,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +615,7 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
@@ -623,13 +626,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -640,10 +643,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -651,7 +654,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -701,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -723,7 +726,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -857,6 +860,9 @@
       <c r="E23" t="s">
         <v>40</v>
       </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -869,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -880,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B90A32C-559B-C44F-BA8D-96EB0509B3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D037ABB-739F-D445-8C60-7F780FA4D5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -567,7 +567,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D037ABB-739F-D445-8C60-7F780FA4D5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8AA41B-EE2A-F94A-91F5-70B0954446B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Component 5: Presentation (finish)</t>
+  </si>
+  <si>
+    <t>[Studies and samples](https://soc333-sum23.github.io/slides/05-studiessamples.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,10 +668,13 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8AA41B-EE2A-F94A-91F5-70B0954446B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702DD868-32D9-1048-A77A-8F5A1BF74457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -53,12 +53,6 @@
     <t>Numerical data pt 1</t>
   </si>
   <si>
-    <t>Categorical data pt 2</t>
-  </si>
-  <si>
-    <t>Categorical data pt 1</t>
-  </si>
-  <si>
     <t>Numerical data pt 2</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>[Studies and samples](https://soc333-sum23.github.io/slides/05-studiessamples.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Categorical data</t>
+  </si>
+  <si>
+    <t>[Workshopping project proposals](https://soc333-sum23.github.io/slides/06-workshopping.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,25 +582,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -618,10 +618,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -629,13 +629,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -646,10 +646,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -668,10 +668,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -682,13 +682,13 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -707,10 +707,10 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -729,10 +729,10 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -743,13 +743,13 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -757,10 +757,10 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -768,7 +768,7 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -776,7 +776,7 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -787,13 +787,13 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -801,7 +801,7 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -809,10 +809,10 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -820,10 +820,10 @@
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,10 +842,10 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -861,13 +861,13 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702DD868-32D9-1048-A77A-8F5A1BF74457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB45B94F-90EE-DD46-9E32-9B25C9B4F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Research questions</t>
   </si>
   <si>
-    <t>Numerical data pt 1</t>
-  </si>
-  <si>
-    <t>Numerical data pt 2</t>
-  </si>
-  <si>
     <t>Making nice plots</t>
   </si>
   <si>
@@ -197,10 +191,19 @@
     <t>[Studies and samples](https://soc333-sum23.github.io/slides/05-studiessamples.html#/title-slide)</t>
   </si>
   <si>
-    <t>Categorical data</t>
-  </si>
-  <si>
     <t>[Workshopping project proposals](https://soc333-sum23.github.io/slides/06-workshopping.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Describing data pt 2</t>
+  </si>
+  <si>
+    <t>Describing data pt 3</t>
+  </si>
+  <si>
+    <t>Summary statistics</t>
+  </si>
+  <si>
+    <t>[Describing data pt 1](https://soc333-sum23.github.io/slides/07-describingpt1.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -582,25 +585,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -618,10 +621,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -629,13 +632,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -646,10 +649,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -657,7 +660,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -668,10 +671,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -682,13 +685,10 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -707,10 +707,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -718,10 +721,10 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -729,10 +732,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -743,13 +749,13 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -757,10 +763,10 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -768,7 +774,7 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -776,7 +782,7 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -787,13 +793,13 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -801,7 +807,7 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -809,10 +815,10 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -820,10 +826,10 @@
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -834,7 +840,7 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,10 +848,10 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,7 +859,7 @@
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -861,13 +867,13 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -892,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB45B94F-90EE-DD46-9E32-9B25C9B4F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E18400E-34C9-484B-ACA5-F1B94AE6ACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Research questions</t>
   </si>
   <si>
-    <t>Making nice plots</t>
-  </si>
-  <si>
     <t>Hypothesis testing pt 1</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>[Project and research questions](https://soc333-sum23.github.io/slides/04-researchquestions.html#/title-slide)</t>
   </si>
   <si>
-    <t>HW 1: Getting oriented to R</t>
-  </si>
-  <si>
     <t>Component 1: proposal</t>
   </si>
   <si>
@@ -194,16 +188,22 @@
     <t>[Workshopping project proposals](https://soc333-sum23.github.io/slides/06-workshopping.html#/title-slide)</t>
   </si>
   <si>
-    <t>Describing data pt 2</t>
-  </si>
-  <si>
-    <t>Describing data pt 3</t>
-  </si>
-  <si>
     <t>Summary statistics</t>
   </si>
   <si>
-    <t>[Describing data pt 1](https://soc333-sum23.github.io/slides/07-describingpt1.html#/title-slide)</t>
+    <t>Summary statistics; filtering</t>
+  </si>
+  <si>
+    <t>[Describing data pt 1: Summary statistics](https://soc333-sum23.github.io/slides/07-describingpt1.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Describing data pt 2: Filtering data frames](https://soc333-sum23.github.io/slides/08-describingpt2.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Describing data pt 4: Plots</t>
+  </si>
+  <si>
+    <t>Describing data pt 3: Creating new variables; plots</t>
   </si>
 </sst>
 </file>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,25 +585,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -621,10 +621,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -632,13 +632,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -649,10 +649,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -671,10 +671,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -685,10 +685,10 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -707,13 +707,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -721,10 +721,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -732,13 +735,10 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -749,13 +749,10 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -763,10 +760,13 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -774,7 +774,7 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -793,13 +793,13 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -815,10 +815,10 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -826,10 +826,10 @@
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -840,7 +840,7 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -848,10 +848,10 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -867,13 +867,13 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E18400E-34C9-484B-ACA5-F1B94AE6ACAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298386B-33E1-294D-A3F4-53AABE353145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -203,7 +203,7 @@
     <t>Describing data pt 4: Plots</t>
   </si>
   <si>
-    <t>Describing data pt 3: Creating new variables; plots</t>
+    <t>[Describing data pt 3: Creating new variables](https://soc333-sum23.github.io/slides/09-describingpt3.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298386B-33E1-294D-A3F4-53AABE353145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DC9C04-412F-D240-99F8-B961ABDCE12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>[Describing data pt 3: Creating new variables](https://soc333-sum23.github.io/slides/09-describingpt3.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Creating variables](https://soc333-sum23.github.io/ex-6-01-scaffolding.html)</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,6 +743,9 @@
       <c r="D11" t="s">
         <v>28</v>
       </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DC9C04-412F-D240-99F8-B961ABDCE12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CBBD00-3F59-2749-85B8-DF1846D14CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Hypothesis testing pt 2</t>
   </si>
   <si>
-    <t>Multiple regression pt 1</t>
-  </si>
-  <si>
-    <t>Multiple regression pt 2</t>
-  </si>
-  <si>
     <t>Best fit lines pt 1</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Due</t>
   </si>
   <si>
-    <t>HW2: Analyzing data</t>
-  </si>
-  <si>
     <t>Getting to know you survey</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>[IMS ch 7](https://openintro-ims.netlify.app/model-slr.html)</t>
   </si>
   <si>
-    <t>[IMS ch 8](https://openintro-ims.netlify.app/model-mlr.html)</t>
-  </si>
-  <si>
     <t>Component 1 draft</t>
   </si>
   <si>
@@ -200,13 +188,19 @@
     <t>[Describing data pt 2: Filtering data frames](https://soc333-sum23.github.io/slides/08-describingpt2.html#/title-slide)</t>
   </si>
   <si>
-    <t>Describing data pt 4: Plots</t>
-  </si>
-  <si>
     <t>[Describing data pt 3: Creating new variables](https://soc333-sum23.github.io/slides/09-describingpt3.html#/title-slide)</t>
   </si>
   <si>
     <t>[Creating variables](https://soc333-sum23.github.io/ex-6-01-scaffolding.html)</t>
+  </si>
+  <si>
+    <t>Describing data pt 6: Plots</t>
+  </si>
+  <si>
+    <t>Describing data pt 4: Pipes</t>
+  </si>
+  <si>
+    <t>Describing data pt 5: Plots</t>
   </si>
 </sst>
 </file>
@@ -576,7 +570,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,25 +582,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -624,10 +618,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -635,13 +629,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -652,10 +646,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -663,7 +657,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -674,10 +668,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -688,10 +682,10 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -702,7 +696,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -710,13 +704,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -724,13 +718,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -738,13 +732,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -755,10 +749,7 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -766,13 +757,7 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -780,7 +765,13 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -788,7 +779,10 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -799,13 +793,7 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -813,7 +801,7 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -824,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -835,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -846,7 +834,7 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,10 +842,10 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -865,7 +853,7 @@
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -873,13 +861,13 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -893,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -904,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CBBD00-3F59-2749-85B8-DF1846D14CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EC4E2B-9817-6C46-A614-656A5320B6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -194,13 +194,13 @@
     <t>[Creating variables](https://soc333-sum23.github.io/ex-6-01-scaffolding.html)</t>
   </si>
   <si>
-    <t>Describing data pt 6: Plots</t>
-  </si>
-  <si>
-    <t>Describing data pt 4: Pipes</t>
-  </si>
-  <si>
-    <t>Describing data pt 5: Plots</t>
+    <t>Describing data pt 5: Plots 2</t>
+  </si>
+  <si>
+    <t>Describing data pt 6: Plots 3</t>
+  </si>
+  <si>
+    <t>[Describing data pt 4: Pipes and plots](https://soc333-sum23.github.io/slides/10-describingpt4.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,7 +749,7 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -757,7 +757,7 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EC4E2B-9817-6C46-A614-656A5320B6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796B1F5F-5908-2349-969E-61D0F6F267BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -182,25 +182,25 @@
     <t>Summary statistics; filtering</t>
   </si>
   <si>
-    <t>[Describing data pt 1: Summary statistics](https://soc333-sum23.github.io/slides/07-describingpt1.html#/title-slide)</t>
-  </si>
-  <si>
-    <t>[Describing data pt 2: Filtering data frames](https://soc333-sum23.github.io/slides/08-describingpt2.html#/title-slide)</t>
-  </si>
-  <si>
-    <t>[Describing data pt 3: Creating new variables](https://soc333-sum23.github.io/slides/09-describingpt3.html#/title-slide)</t>
-  </si>
-  <si>
     <t>[Creating variables](https://soc333-sum23.github.io/ex-6-01-scaffolding.html)</t>
   </si>
   <si>
-    <t>Describing data pt 5: Plots 2</t>
-  </si>
-  <si>
-    <t>Describing data pt 6: Plots 3</t>
-  </si>
-  <si>
-    <t>[Describing data pt 4: Pipes and plots](https://soc333-sum23.github.io/slides/10-describingpt4.html#/title-slide)</t>
+    <t>[Summary statistics](https://soc333-sum23.github.io/slides/07-describingpt1.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Filtering data frames](https://soc333-sum23.github.io/slides/08-describingpt2.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Creating new variables](https://soc333-sum23.github.io/slides/09-describingpt3.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Pipes](https://soc333-sum23.github.io/slides/10-describingpt4.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Plots pt 2</t>
+  </si>
+  <si>
+    <t>[Plotting one variable](https://soc333-sum23.github.io/slides/11-plots.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,7 +704,7 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>41</v>
@@ -718,7 +718,7 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -732,13 +732,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -749,7 +749,7 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -757,7 +757,7 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -770,9 +770,6 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
@@ -783,6 +780,9 @@
       </c>
       <c r="D15" t="s">
         <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796B1F5F-5908-2349-969E-61D0F6F267BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A96861-4B3D-C244-B6B8-814CE8D2E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -197,10 +197,10 @@
     <t>[Pipes](https://soc333-sum23.github.io/slides/10-describingpt4.html#/title-slide)</t>
   </si>
   <si>
-    <t>Plots pt 2</t>
-  </si>
-  <si>
     <t>[Plotting one variable](https://soc333-sum23.github.io/slides/11-plots.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Plotting relationships between variables](https://soc333-sum23.github.io/slides/12-plots2.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -570,7 +570,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -757,7 +757,7 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -765,7 +765,7 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A96861-4B3D-C244-B6B8-814CE8D2E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A4DAF-65E0-044A-A11E-BB11AE4824F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="-42140" yWindow="2240" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Research questions</t>
   </si>
   <si>
-    <t>Hypothesis testing pt 1</t>
-  </si>
-  <si>
     <t>Hypothesis testing pt 2</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>[IMS ch 6](https://openintro-ims.netlify.app/explore-applications.html)</t>
   </si>
   <si>
-    <t>[IMS ch 11](https://openintro-ims.netlify.app/foundations-randomization.html)</t>
-  </si>
-  <si>
     <t>[IMS ch 7](https://openintro-ims.netlify.app/model-slr.html)</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>[Plotting relationships between variables](https://soc333-sum23.github.io/slides/12-plots2.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[IMS ch 11](https://openintro-ims.netlify.app/foundations-randomization.html) and [ch 13] (https://openintro-ims.netlify.app/foundations-mathematical.html#foundations-mathematical)</t>
+  </si>
+  <si>
+    <t>[Hypothesis testing pt 1](https://soc333-sum23.github.io/slides/13-hypothesistests1.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,25 +582,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -618,10 +618,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -629,13 +629,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -646,10 +646,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -668,10 +668,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -682,10 +682,10 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -696,7 +696,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -704,13 +704,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -718,13 +718,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -732,13 +732,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -749,7 +749,7 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -757,7 +757,7 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -765,10 +765,10 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -776,13 +776,13 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -793,7 +793,7 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -801,7 +801,7 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -809,10 +809,10 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -820,10 +820,10 @@
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -834,7 +834,7 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,10 +842,10 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,7 +853,7 @@
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -861,13 +861,13 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/Teaching essentials/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978A4DAF-65E0-044A-A11E-BB11AE4824F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C1ECD6-85F6-A447-847E-935C5039C130}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42140" yWindow="2240" windowWidth="28800" windowHeight="16440" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,9 +45,6 @@
     <t>Research questions</t>
   </si>
   <si>
-    <t>Hypothesis testing pt 2</t>
-  </si>
-  <si>
     <t>Best fit lines pt 1</t>
   </si>
   <si>
@@ -201,13 +193,16 @@
   </si>
   <si>
     <t>[Hypothesis testing pt 1](https://soc333-sum23.github.io/slides/13-hypothesistests1.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Hypothesis testing pt 2](https://soc333-sum23.github.io/slides/14-hypothesistests2.html#/title-slide)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -570,37 +565,37 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="97.1640625" customWidth="1"/>
     <col min="4" max="4" width="66.5" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -610,7 +605,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
@@ -618,27 +613,27 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" s="2">
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>2</v>
       </c>
@@ -646,49 +641,49 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" s="2">
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="B6" s="2">
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="B7" s="2">
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>3</v>
       </c>
@@ -696,52 +691,52 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" s="2">
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" s="2">
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" s="2">
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>4</v>
       </c>
@@ -749,43 +744,43 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" s="2">
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" s="2">
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" s="2">
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>5</v>
       </c>
@@ -793,40 +788,40 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="B17" s="2">
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="B18" s="2">
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="B19" s="2">
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>6</v>
       </c>
@@ -834,43 +829,43 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="B21" s="2">
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="B22" s="2">
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="B23" s="2">
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>7</v>
       </c>
@@ -881,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="B25" s="2">
         <v>45105</v>
       </c>
@@ -892,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/Teaching essentials/Teaching/Soc333_sum23/soc333_github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C1ECD6-85F6-A447-847E-935C5039C130}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A44EBD9-F666-CD43-96A0-8F55EDFC9763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,20 +189,20 @@
     <t>[Plotting relationships between variables](https://soc333-sum23.github.io/slides/12-plots2.html#/title-slide)</t>
   </si>
   <si>
-    <t>[IMS ch 11](https://openintro-ims.netlify.app/foundations-randomization.html) and [ch 13] (https://openintro-ims.netlify.app/foundations-mathematical.html#foundations-mathematical)</t>
-  </si>
-  <si>
     <t>[Hypothesis testing pt 1](https://soc333-sum23.github.io/slides/13-hypothesistests1.html#/title-slide)</t>
   </si>
   <si>
     <t>[Hypothesis testing pt 2](https://soc333-sum23.github.io/slides/14-hypothesistests2.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[IMS ch 11](https://openintro-ims.netlify.app/foundations-randomization.html) and [ch 13](https://openintro-ims.netlify.app/foundations-mathematical.html#foundations-mathematical)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -565,17 +565,17 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="97.1640625" customWidth="1"/>
     <col min="4" max="4" width="66.5" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -605,7 +605,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -619,7 +619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
         <v>45064</v>
       </c>
@@ -633,7 +633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -647,7 +647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>45069</v>
       </c>
@@ -658,7 +658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
         <v>45070</v>
       </c>
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
         <v>45071</v>
       </c>
@@ -683,7 +683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -694,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
         <v>45076</v>
       </c>
@@ -708,7 +708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <v>45077</v>
       </c>
@@ -722,7 +722,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
         <v>45078</v>
       </c>
@@ -736,7 +736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -747,7 +747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>45083</v>
       </c>
@@ -755,7 +755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <v>45084</v>
       </c>
@@ -766,21 +766,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -788,10 +788,10 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>45090</v>
       </c>
@@ -799,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>45091</v>
       </c>
@@ -810,7 +810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>45092</v>
       </c>
@@ -821,7 +821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -832,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>45097</v>
       </c>
@@ -843,7 +843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>45098</v>
       </c>
@@ -851,7 +851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>45099</v>
       </c>
@@ -865,7 +865,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
@@ -879,7 +879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>45105</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A44EBD9-F666-CD43-96A0-8F55EDFC9763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413524D-A399-3746-8549-B2F8228CED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Best fit lines pt 2</t>
   </si>
   <si>
-    <t>Hypothesis testing pt 3</t>
-  </si>
-  <si>
     <t>Causality</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>[IMS ch 11](https://openintro-ims.netlify.app/foundations-randomization.html) and [ch 13](https://openintro-ims.netlify.app/foundations-mathematical.html#foundations-mathematical)</t>
+  </si>
+  <si>
+    <t>[Hypothesis testing pt 3](https://soc333-sum23.github.io/slides/15-hypothesistests3.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,25 +577,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -613,10 +613,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -624,13 +624,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -641,10 +641,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -663,10 +663,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -677,10 +677,10 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -691,7 +691,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -699,13 +699,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -713,13 +713,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -727,13 +727,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -744,7 +744,7 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -752,7 +752,7 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -760,10 +760,10 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -771,13 +771,13 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -837,10 +837,10 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -848,7 +848,7 @@
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -856,13 +856,13 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B413524D-A399-3746-8549-B2F8228CED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6097B064-2663-4247-9983-941519C6939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Research questions</t>
   </si>
   <si>
-    <t>Best fit lines pt 1</t>
-  </si>
-  <si>
-    <t>Best fit lines pt 2</t>
-  </si>
-  <si>
     <t>Causality</t>
   </si>
   <si>
@@ -196,6 +190,27 @@
   </si>
   <si>
     <t>[Hypothesis testing pt 3](https://soc333-sum23.github.io/slides/15-hypothesistests3.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Plotting one variable</t>
+  </si>
+  <si>
+    <t>Hypothesis testing</t>
+  </si>
+  <si>
+    <t>Hypothesis testing pt 5</t>
+  </si>
+  <si>
+    <t>Null and alternative hypotheses</t>
+  </si>
+  <si>
+    <t>Z scores</t>
+  </si>
+  <si>
+    <t>[Hypothesis testing pt 4](https://soc333-sum23.github.io/slides/16-hypothesistests4.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Hypothesis testing 2</t>
   </si>
 </sst>
 </file>
@@ -564,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,25 +592,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -613,10 +628,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -624,13 +639,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -641,10 +656,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -652,7 +667,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -663,10 +678,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -677,10 +692,10 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -691,7 +706,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -699,13 +714,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -713,13 +728,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -727,13 +742,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -744,7 +759,7 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -752,7 +767,10 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -760,10 +778,10 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -771,13 +789,16 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
         <v>51</v>
       </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -788,40 +809,49 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>45090</v>
       </c>
       <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -829,43 +859,43 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7</v>
       </c>
@@ -876,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>45105</v>
       </c>
@@ -887,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6097B064-2663-4247-9983-941519C6939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A9B4A-1008-474F-BD10-80F15896A18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="16600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="-41320" yWindow="4020" windowWidth="28800" windowHeight="16600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>Interpreting results</t>
-  </si>
-  <si>
     <t>No class. Happy Memorial Day!</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>[IMS ch 6](https://openintro-ims.netlify.app/explore-applications.html)</t>
   </si>
   <si>
-    <t>[IMS ch 7](https://openintro-ims.netlify.app/model-slr.html)</t>
-  </si>
-  <si>
     <t>Component 1 draft</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>Hypothesis testing</t>
   </si>
   <si>
-    <t>Hypothesis testing pt 5</t>
-  </si>
-  <si>
     <t>Null and alternative hypotheses</t>
   </si>
   <si>
@@ -211,6 +202,15 @@
   </si>
   <si>
     <t>Hypothesis testing 2</t>
+  </si>
+  <si>
+    <t>[Science Isn't Broken](https://fivethirtyeight.com/features/science-isnt-broken/)</t>
+  </si>
+  <si>
+    <t>The pitfalls of p values</t>
+  </si>
+  <si>
+    <t>[Interpreting results](https://soc333-sum23.github.io/slides/17-interpretingresults.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,25 +592,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -628,10 +628,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -639,13 +639,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -656,10 +656,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -667,7 +667,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -678,10 +678,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -692,10 +692,10 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -714,13 +714,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -728,13 +728,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -742,13 +742,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -767,10 +767,10 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -778,10 +778,10 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -789,16 +789,16 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -809,10 +809,10 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -820,10 +820,10 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
         <v>52</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -831,10 +831,10 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -842,13 +842,10 @@
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
         <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -859,7 +856,7 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -867,10 +864,13 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -886,13 +886,13 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A9B4A-1008-474F-BD10-80F15896A18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF10847-3340-1D42-9C4A-47BDF911B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41320" yWindow="4020" windowWidth="28800" windowHeight="16600" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="-40300" yWindow="500" windowWidth="29400" windowHeight="17280" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Getting to know you survey</t>
   </si>
   <si>
-    <t>Wrapup</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -211,6 +208,12 @@
   </si>
   <si>
     <t>[Interpreting results](https://soc333-sum23.github.io/slides/17-interpretingresults.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Interpreting results</t>
+  </si>
+  <si>
+    <t>Final project presentations; workshop final papers</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,13 +595,13 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -610,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -628,7 +631,7 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -639,13 +642,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -656,10 +659,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -667,7 +670,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -678,10 +681,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -692,10 +695,10 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -714,13 +717,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -728,13 +731,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -742,13 +745,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -759,7 +762,7 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -767,10 +770,10 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -778,10 +781,10 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -789,16 +792,16 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -809,10 +812,10 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -820,10 +823,10 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -831,10 +834,10 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
         <v>55</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -842,10 +845,13 @@
         <v>45092</v>
       </c>
       <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
         <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -864,13 +870,13 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -886,13 +892,10 @@
         <v>45099</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -903,10 +906,13 @@
         <v>45103</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -917,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF10847-3340-1D42-9C4A-47BDF911B695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5913EF5E-0224-514C-BC31-357661A56C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40300" yWindow="500" windowWidth="29400" windowHeight="17280" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Research questions</t>
   </si>
   <si>
-    <t>Causality</t>
-  </si>
-  <si>
     <t>No class. Happy Memorial Day!</t>
   </si>
   <si>
@@ -99,18 +96,12 @@
     <t>Component 3 draft</t>
   </si>
   <si>
-    <t>Component 4 draft</t>
-  </si>
-  <si>
     <t>Component 2: Descriptive statistics</t>
   </si>
   <si>
     <t>Component 3: Results</t>
   </si>
   <si>
-    <t>Component 4: Final paper</t>
-  </si>
-  <si>
     <t>Computing setup test</t>
   </si>
   <si>
@@ -132,12 +123,6 @@
     <t>Component 1: proposal</t>
   </si>
   <si>
-    <t>Component 5: Presentation (start)</t>
-  </si>
-  <si>
-    <t>Component 5: Presentation (finish)</t>
-  </si>
-  <si>
     <t>[Studies and samples](https://soc333-sum23.github.io/slides/05-studiessamples.html#/title-slide)</t>
   </si>
   <si>
@@ -204,9 +189,6 @@
     <t>[Science Isn't Broken](https://fivethirtyeight.com/features/science-isnt-broken/)</t>
   </si>
   <si>
-    <t>The pitfalls of p values</t>
-  </si>
-  <si>
     <t>[Interpreting results](https://soc333-sum23.github.io/slides/17-interpretingresults.html#/title-slide)</t>
   </si>
   <si>
@@ -214,6 +196,24 @@
   </si>
   <si>
     <t>Final project presentations; workshop final papers</t>
+  </si>
+  <si>
+    <t>Component 4: Presentation (start)</t>
+  </si>
+  <si>
+    <t>Component 4: Presentation (finish)</t>
+  </si>
+  <si>
+    <t>Component 5: Final paper</t>
+  </si>
+  <si>
+    <t>Component 5 draft</t>
+  </si>
+  <si>
+    <t>[Limitations, future research, and problems with p values](https://soc333-sum23.github.io/slides/18-pvals.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Best practices</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,25 +595,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -631,10 +631,10 @@
         <v>45063</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -642,13 +642,13 @@
         <v>45064</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -659,10 +659,10 @@
         <v>45068</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>45069</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -681,10 +681,10 @@
         <v>45070</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>45071</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>45075</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -717,13 +717,13 @@
         <v>45076</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -731,13 +731,13 @@
         <v>45077</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -745,13 +745,13 @@
         <v>45078</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -762,7 +762,7 @@
         <v>45082</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -770,10 +770,10 @@
         <v>45083</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -781,10 +781,10 @@
         <v>45084</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -792,16 +792,16 @@
         <v>45085</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -812,10 +812,10 @@
         <v>45089</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -823,10 +823,10 @@
         <v>45090</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -834,10 +834,10 @@
         <v>45091</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -845,13 +845,13 @@
         <v>45092</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -862,7 +862,7 @@
         <v>45096</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -870,13 +870,13 @@
         <v>45097</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -884,7 +884,7 @@
         <v>45098</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -906,13 +906,13 @@
         <v>45103</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidan/Desktop/School/Grad_school/Teaching/Soc333_sum23/soc333_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5913EF5E-0224-514C-BC31-357661A56C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4297F4F-835E-3B49-8F92-A1DF18FD3A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-40300" yWindow="500" windowWidth="29400" windowHeight="17280" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -210,10 +210,10 @@
     <t>Component 5 draft</t>
   </si>
   <si>
-    <t>[Limitations, future research, and problems with p values](https://soc333-sum23.github.io/slides/18-pvals.html#/title-slide)</t>
-  </si>
-  <si>
-    <t>Best practices</t>
+    <t>[Limitations and future research](https://soc333-sum23.github.io/slides/18-pvals.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Best practices](https://soc333-sum23.github.io/slides/19-wrapup.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -583,7 +583,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,9 +872,6 @@
       <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
       <c r="F21" t="s">
         <v>22</v>
       </c>
@@ -885,6 +882,9 @@
       </c>
       <c r="C22" t="s">
         <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\research\soc333-sum24.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D58961C-9510-46EC-8ECB-0FF0B7E21903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B9704A-C626-4BCB-84C6-B272F8385A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,10 +195,10 @@
     <t>[Intro to the computing workflow](https://soc333-sum24.github.io/slides/03-computing.html#/title-slide)</t>
   </si>
   <si>
-    <t>[Project and research questions](https://soc333-sum24.github.io/slides/04-researchquestions.html#/title-slide)</t>
-  </si>
-  <si>
     <t>Research questions, clone repo</t>
+  </si>
+  <si>
+    <t>[Project and research questions]</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -683,18 +683,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4">
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B9704A-C626-4BCB-84C6-B272F8385A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEAAE22-0F37-4C37-9370-4F99BEBEF917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
     <t>Research questions, clone repo</t>
   </si>
   <si>
-    <t>[Project and research questions]</t>
+    <t>[Project and research questions](https://soc333-sum24.github.io/slides/04-researchquestions.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4">
         <v>45433</v>
@@ -986,7 +986,9 @@
       <c r="D26" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
@@ -997,9 +999,6 @@
       </c>
       <c r="C27" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEAAE22-0F37-4C37-9370-4F99BEBEF917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C066234-1E69-4708-9D0E-B3A6CD18C2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="390" yWindow="-15810" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C066234-1E69-4708-9D0E-B3A6CD18C2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0463F71-5160-409C-9BE0-FF7199F6C18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="-15810" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="-26070" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,10 +195,10 @@
     <t>[Intro to the computing workflow](https://soc333-sum24.github.io/slides/03-computing.html#/title-slide)</t>
   </si>
   <si>
-    <t>Research questions, clone repo</t>
-  </si>
-  <si>
     <t>[Project and research questions](https://soc333-sum24.github.io/slides/04-researchquestions.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Clone repo</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -689,12 +689,12 @@
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0463F71-5160-409C-9BE0-FF7199F6C18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A7FA43-8353-4364-B621-781D4B927441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Interpreting results</t>
   </si>
   <si>
-    <t>Workshopping project proposals</t>
-  </si>
-  <si>
     <t>No class (Memorial Day)</t>
   </si>
   <si>
@@ -199,6 +196,15 @@
   </si>
   <si>
     <t>Clone repo</t>
+  </si>
+  <si>
+    <t>[Summary statistics](https://soc333-sum24.github.io/slides/07-describingpt1.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Workshopping project proposals](https://soc333-sum24.github.io/slides/06-workshopping.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Studies and samples](https://soc333-sum24.github.io/slides/05-studiessamples.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,12 +639,12 @@
         <v>45427</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -647,7 +653,7 @@
         <v>45428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -655,7 +661,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -664,7 +670,7 @@
         <v>45429</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -675,12 +681,12 @@
         <v>45432</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -689,21 +695,21 @@
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4">
         <v>45434</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -714,16 +720,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4">
         <v>45435</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -734,7 +740,7 @@
         <v>45436</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -748,20 +754,20 @@
         <v>45439</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4">
         <v>45440</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -773,7 +779,7 @@
         <v>45441</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -781,7 +787,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -790,7 +796,7 @@
         <v>45442</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -798,7 +804,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -807,7 +813,7 @@
         <v>45443</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -821,7 +827,7 @@
         <v>45446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -847,7 +853,7 @@
         <v>45448</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -862,17 +868,17 @@
         <v>45449</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -881,7 +887,7 @@
         <v>45450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
@@ -895,12 +901,12 @@
         <v>45453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -909,12 +915,12 @@
         <v>45454</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,12 +929,12 @@
         <v>45455</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -940,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
@@ -953,7 +959,7 @@
         <v>45457</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
@@ -967,11 +973,11 @@
         <v>45460</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -981,13 +987,13 @@
         <v>45461</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -998,7 +1004,7 @@
         <v>45462</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1013,7 +1019,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1023,7 +1029,7 @@
         <v>45464</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1037,11 +1043,11 @@
         <v>45467</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" s="1"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A7FA43-8353-4364-B621-781D4B927441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250E938-3AE9-4602-B956-53ADBABAC291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="7200" yWindow="195" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>No class (Memorial Day)</t>
   </si>
   <si>
-    <t>Filtering data frames</t>
-  </si>
-  <si>
     <t>Creating new variables</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>[Studies and samples](https://soc333-sum24.github.io/slides/05-studiessamples.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Filtering data frames](https://soc333-sum24.github.io/slides/07-describingpt2.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,12 +639,12 @@
         <v>45427</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>45428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -661,7 +661,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>45429</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -681,12 +681,12 @@
         <v>45432</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -695,12 +695,12 @@
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>45434</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -726,10 +726,10 @@
         <v>45435</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -740,7 +740,7 @@
         <v>45436</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -763,23 +763,23 @@
         <v>45440</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4">
         <v>45441</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -787,7 +787,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>45442</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -804,7 +804,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
         <v>45443</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -827,7 +827,7 @@
         <v>45446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -853,7 +853,7 @@
         <v>45448</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -868,17 +868,17 @@
         <v>45449</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>45450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
@@ -901,12 +901,12 @@
         <v>45453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -915,12 +915,12 @@
         <v>45454</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,12 +929,12 @@
         <v>45455</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
@@ -959,7 +959,7 @@
         <v>45457</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
@@ -973,11 +973,11 @@
         <v>45460</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -987,13 +987,13 @@
         <v>45461</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1004,7 +1004,7 @@
         <v>45462</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1029,7 +1029,7 @@
         <v>45464</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1043,11 +1043,11 @@
         <v>45467</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9250E938-3AE9-4602-B956-53ADBABAC291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EC50BE-7E73-460F-81E8-25503C9B0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="195" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <t>[Studies and samples](https://soc333-sum24.github.io/slides/05-studiessamples.html#/title-slide)</t>
   </si>
   <si>
-    <t>[Filtering data frames](https://soc333-sum24.github.io/slides/07-describingpt2.html#/title-slide)</t>
+    <t>[Filtering data frames](https://soc333-sum24.github.io/slides/08-describingpt2.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EC50BE-7E73-460F-81E8-25503C9B0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEB2A29-9D9E-4D89-B20C-3A289DB8F166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="195" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>No class (Memorial Day)</t>
   </si>
   <si>
-    <t>Creating new variables</t>
-  </si>
-  <si>
     <t>Pipes</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>[Filtering data frames](https://soc333-sum24.github.io/slides/08-describingpt2.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Creating new variables](https://soc333-sum24.github.io/slides/09-describingpt3.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,12 +639,12 @@
         <v>45427</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>45428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -661,7 +661,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>45429</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -681,12 +681,12 @@
         <v>45432</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -695,12 +695,12 @@
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>45434</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -726,10 +726,10 @@
         <v>45435</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -740,7 +740,7 @@
         <v>45436</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -763,11 +763,11 @@
         <v>45440</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -779,7 +779,7 @@
         <v>45441</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -787,16 +787,16 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4">
         <v>45442</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -804,7 +804,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -813,7 +813,7 @@
         <v>45443</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -827,7 +827,7 @@
         <v>45446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -853,7 +853,7 @@
         <v>45448</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -868,17 +868,17 @@
         <v>45449</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>45450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
@@ -901,12 +901,12 @@
         <v>45453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -915,12 +915,12 @@
         <v>45454</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,12 +929,12 @@
         <v>45455</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
@@ -959,7 +959,7 @@
         <v>45457</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
@@ -973,11 +973,11 @@
         <v>45460</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -987,13 +987,13 @@
         <v>45461</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1004,7 +1004,7 @@
         <v>45462</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1029,7 +1029,7 @@
         <v>45464</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1043,11 +1043,11 @@
         <v>45467</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEB2A29-9D9E-4D89-B20C-3A289DB8F166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAF63B4-267F-4BAE-85A6-A752606FDDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="195" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="3540" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -93,9 +93,6 @@
     <t>No class (Memorial Day)</t>
   </si>
   <si>
-    <t>Pipes</t>
-  </si>
-  <si>
     <t>Plotting relationships between variables</t>
   </si>
   <si>
@@ -205,6 +202,12 @@
   </si>
   <si>
     <t>[Creating new variables](https://soc333-sum24.github.io/slides/09-describingpt3.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Pipes](https://soc333-sum24.github.io/slides/10-describingpt4.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Plotting one variable](https://soc333-sum24.github.io/slides/11-plots.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -589,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -639,12 +642,12 @@
         <v>45427</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -653,7 +656,7 @@
         <v>45428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -661,7 +664,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -670,7 +673,7 @@
         <v>45429</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -681,12 +684,12 @@
         <v>45432</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -695,12 +698,12 @@
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -709,7 +712,7 @@
         <v>45434</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -726,10 +729,10 @@
         <v>45435</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -740,7 +743,7 @@
         <v>45436</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -763,11 +766,11 @@
         <v>45440</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -779,7 +782,7 @@
         <v>45441</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -787,7 +790,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -796,7 +799,7 @@
         <v>45442</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -804,7 +807,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -813,13 +816,13 @@
         <v>45443</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>4</v>
       </c>
@@ -827,19 +830,19 @@
         <v>45446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4">
         <v>45447</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -853,7 +856,7 @@
         <v>45448</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -868,17 +871,17 @@
         <v>45449</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,7 +890,7 @@
         <v>45450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
@@ -901,12 +904,12 @@
         <v>45453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -915,12 +918,12 @@
         <v>45454</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,12 +932,12 @@
         <v>45455</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -946,7 +949,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
@@ -959,7 +962,7 @@
         <v>45457</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
@@ -973,11 +976,11 @@
         <v>45460</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -987,13 +990,13 @@
         <v>45461</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1004,7 +1007,7 @@
         <v>45462</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1019,7 +1022,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1029,7 +1032,7 @@
         <v>45464</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1043,11 +1046,11 @@
         <v>45467</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="1"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAF63B4-267F-4BAE-85A6-A752606FDDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ACC99A-8B4D-4A16-BE05-9842620434A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="2655" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <t>No class (Memorial Day)</t>
   </si>
   <si>
-    <t>Plotting relationships between variables</t>
-  </si>
-  <si>
     <t>Hypothesis testing pt. 1</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>[Plotting one variable](https://soc333-sum24.github.io/slides/11-plots.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Plotting relationships between variables](https://soc333-sum24.github.io/slides/12-plots2.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -642,12 +642,12 @@
         <v>45427</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>45428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -664,7 +664,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>45429</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -684,12 +684,12 @@
         <v>45432</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -698,12 +698,12 @@
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>45434</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -729,10 +729,10 @@
         <v>45435</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -743,7 +743,7 @@
         <v>45436</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -766,11 +766,11 @@
         <v>45440</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -782,7 +782,7 @@
         <v>45441</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -790,7 +790,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>45442</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -807,7 +807,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>45443</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -830,7 +830,7 @@
         <v>45446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -842,7 +842,7 @@
         <v>45447</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -850,13 +850,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4">
         <v>45448</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -871,17 +871,17 @@
         <v>45449</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>45450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
@@ -904,12 +904,12 @@
         <v>45453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -918,12 +918,12 @@
         <v>45454</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -932,12 +932,12 @@
         <v>45455</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
@@ -962,7 +962,7 @@
         <v>45457</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
@@ -976,11 +976,11 @@
         <v>45460</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -990,13 +990,13 @@
         <v>45461</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1007,7 +1007,7 @@
         <v>45462</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1032,7 +1032,7 @@
         <v>45464</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1046,11 +1046,11 @@
         <v>45467</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="1"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ACC99A-8B4D-4A16-BE05-9842620434A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AB0AA4-4B06-4C4E-9F5A-424483F6EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,15 +93,9 @@
     <t>No class (Memorial Day)</t>
   </si>
   <si>
-    <t>Hypothesis testing pt. 1</t>
-  </si>
-  <si>
     <t>Hypothesis testing pt. 2</t>
   </si>
   <si>
-    <t>Hypothesis testing pt. 3</t>
-  </si>
-  <si>
     <t>Hypothesis testing pt. 4</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>[Plotting relationships between variables](https://soc333-sum24.github.io/slides/12-plots2.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Hypothesis testing pt. 1](https://soc333-sum24.github.io/slides/13-hypothesistests1.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Hypothesis testing pt. 3](https://soc333-sum24.github.io/slides/14-hypothesistests2.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -642,12 +642,12 @@
         <v>45427</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>45428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -664,7 +664,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>45429</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -684,12 +684,12 @@
         <v>45432</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -698,12 +698,12 @@
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>45434</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -729,10 +729,10 @@
         <v>45435</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -743,7 +743,7 @@
         <v>45436</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -766,11 +766,11 @@
         <v>45440</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -782,7 +782,7 @@
         <v>45441</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -790,7 +790,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>45442</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -807,7 +807,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>45443</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -830,7 +830,7 @@
         <v>45446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -842,7 +842,7 @@
         <v>45447</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -856,7 +856,7 @@
         <v>45448</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -865,23 +865,23 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="4">
         <v>45449</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>45450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
@@ -904,26 +904,26 @@
         <v>45453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="4">
         <v>45454</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -932,12 +932,12 @@
         <v>45455</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
@@ -962,7 +962,7 @@
         <v>45457</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
@@ -976,11 +976,11 @@
         <v>45460</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -990,13 +990,13 @@
         <v>45461</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1007,7 +1007,7 @@
         <v>45462</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1032,7 +1032,7 @@
         <v>45464</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1046,11 +1046,11 @@
         <v>45467</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G30" s="1"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AB0AA4-4B06-4C4E-9F5A-424483F6EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229FEA23-619B-4318-B28E-A40FEB7DBD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>No class (Memorial Day)</t>
   </si>
   <si>
-    <t>Hypothesis testing pt. 2</t>
-  </si>
-  <si>
     <t>Hypothesis testing pt. 4</t>
   </si>
   <si>
@@ -207,7 +204,10 @@
     <t>[Hypothesis testing pt. 1](https://soc333-sum24.github.io/slides/13-hypothesistests1.html#/title-slide)</t>
   </si>
   <si>
-    <t>[Hypothesis testing pt. 3](https://soc333-sum24.github.io/slides/14-hypothesistests2.html#/title-slide)</t>
+    <t>[Hypothesis testing pt. 2](https://soc333-sum24.github.io/slides/14-hypothesistests2.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>Hypothesis testing pt. 3</t>
   </si>
 </sst>
 </file>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA364B-4369-6A4C-8B80-A99A4414C3D0}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -642,12 +642,12 @@
         <v>45427</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>45428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -664,7 +664,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>45429</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -684,12 +684,12 @@
         <v>45432</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -698,12 +698,12 @@
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>45434</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -729,10 +729,10 @@
         <v>45435</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -743,7 +743,7 @@
         <v>45436</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -766,11 +766,11 @@
         <v>45440</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -782,7 +782,7 @@
         <v>45441</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -790,7 +790,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>45442</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -807,7 +807,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>45443</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -830,7 +830,7 @@
         <v>45446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -842,7 +842,7 @@
         <v>45447</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -856,7 +856,7 @@
         <v>45448</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -871,17 +871,17 @@
         <v>45449</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,13 +890,13 @@
         <v>45450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -904,15 +904,15 @@
         <v>45453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="4">
         <v>45454</v>
@@ -923,7 +923,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -932,12 +932,12 @@
         <v>45455</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
@@ -962,7 +962,7 @@
         <v>45457</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
@@ -976,11 +976,11 @@
         <v>45460</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -990,13 +990,13 @@
         <v>45461</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1007,7 +1007,7 @@
         <v>45462</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1032,7 +1032,7 @@
         <v>45464</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1046,11 +1046,11 @@
         <v>45467</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G30" s="1"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229FEA23-619B-4318-B28E-A40FEB7DBD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1D430B-3E0E-4901-AC8D-0E4B9B2331EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>[Hypothesis testing pt. 2](https://soc333-sum24.github.io/slides/14-hypothesistests2.html#/title-slide)</t>
   </si>
   <si>
-    <t>Hypothesis testing pt. 3</t>
+    <t>[Hypothesis testing pt. 3](https://soc333-sum24.github.io/slides/15-hypothesistests3.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -912,7 +912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="4">
         <v>45454</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1D430B-3E0E-4901-AC8D-0E4B9B2331EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B484C4E3-9C17-4DEB-9F97-C3D036130B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>No class (Memorial Day)</t>
   </si>
   <si>
-    <t>Hypothesis testing pt. 4</t>
-  </si>
-  <si>
     <t>Limitations and future research</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>[Hypothesis testing pt. 3](https://soc333-sum24.github.io/slides/15-hypothesistests3.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Hypothesis testing pt. 4](https://soc333-sum24.github.io/slides/16-hypothesistests4.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -642,12 +642,12 @@
         <v>45427</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>45428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -664,7 +664,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>45429</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -684,12 +684,12 @@
         <v>45432</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -698,12 +698,12 @@
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>45434</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -729,10 +729,10 @@
         <v>45435</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -743,7 +743,7 @@
         <v>45436</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -766,11 +766,11 @@
         <v>45440</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -782,7 +782,7 @@
         <v>45441</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -790,7 +790,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -799,7 +799,7 @@
         <v>45442</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -807,7 +807,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -816,7 +816,7 @@
         <v>45443</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -830,7 +830,7 @@
         <v>45446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -842,7 +842,7 @@
         <v>45447</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -856,7 +856,7 @@
         <v>45448</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -871,17 +871,17 @@
         <v>45449</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>45450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
@@ -904,12 +904,12 @@
         <v>45453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -918,26 +918,26 @@
         <v>45454</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="4">
         <v>45455</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
@@ -962,7 +962,7 @@
         <v>45457</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
@@ -976,11 +976,11 @@
         <v>45460</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -990,13 +990,13 @@
         <v>45461</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1007,7 +1007,7 @@
         <v>45462</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1032,7 +1032,7 @@
         <v>45464</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1046,11 +1046,11 @@
         <v>45467</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="1"/>
     </row>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B484C4E3-9C17-4DEB-9F97-C3D036130B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8BA112-FB38-496F-A9BB-3C7561CF547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Final project presentations</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>[Hypothesis testing pt. 4](https://soc333-sum24.github.io/slides/16-hypothesistests4.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Interpreting results](https://soc333-sum24.github.io/slides/17-interpretingresults.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -940,13 +943,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4">
         <v>45456</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>27</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssche\Documents\work docs\teaching\soc333-sum24.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8BA112-FB38-496F-A9BB-3C7561CF547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A92EB79-84F8-4E31-AAEA-77BDECE6D9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{159CD874-63CF-3B4E-8DA1-4D7FF80F5CF5}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>No class (Memorial Day)</t>
   </si>
   <si>
-    <t>Limitations and future research</t>
-  </si>
-  <si>
     <t>Best practices</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>[Interpreting results](https://soc333-sum24.github.io/slides/17-interpretingresults.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>[Limitations and future research](https://soc333-sum24.github.io/slides/18-pvals.html#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,12 +645,12 @@
         <v>45427</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>45428</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -667,7 +667,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>45429</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="63" x14ac:dyDescent="0.25">
@@ -687,12 +687,12 @@
         <v>45432</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -701,12 +701,12 @@
         <v>45433</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>45434</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -732,10 +732,10 @@
         <v>45435</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -746,7 +746,7 @@
         <v>45436</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -769,11 +769,11 @@
         <v>45440</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -785,7 +785,7 @@
         <v>45441</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -793,7 +793,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>45442</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -810,7 +810,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>45443</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -833,7 +833,7 @@
         <v>45446</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -845,7 +845,7 @@
         <v>45447</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -859,7 +859,7 @@
         <v>45448</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -874,17 +874,17 @@
         <v>45449</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -893,7 +893,7 @@
         <v>45450</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
@@ -907,12 +907,12 @@
         <v>45453</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -921,12 +921,12 @@
         <v>45454</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -935,12 +935,12 @@
         <v>45455</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -949,10 +949,10 @@
         <v>45456</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="3" t="s">
@@ -965,13 +965,13 @@
         <v>45457</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>7</v>
       </c>
@@ -979,12 +979,9 @@
         <v>45460</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -993,15 +990,14 @@
         <v>45461</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1010,7 +1006,7 @@
         <v>45462</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1023,9 +1019,11 @@
       <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F28" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1035,7 +1033,7 @@
         <v>45464</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1049,11 +1047,11 @@
         <v>45467</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G30" s="1"/>
     </row>
